--- a/biology/Botanique/Melon_de_Cavaillon/Melon_de_Cavaillon.xlsx
+++ b/biology/Botanique/Melon_de_Cavaillon/Melon_de_Cavaillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le melon de Cavaillon est une désignation qui recouvre des variétés de différentes provenances suivant les époques de l'année.
@@ -512,9 +524,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus connue est le cantaloup. Ce melon, originaire d'Arménie[1], arriva en Italie, via l'Afrique[2]. Cette variété est couramment dite melon de Cavaillon ou melon charentais. Mais, il existe aussi le « melon tranché de Cavaillon », le « melon allongé de Cavaillon » et le « melon d'hiver de Cavaillon »[3][réf. non conforme]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus connue est le cantaloup. Ce melon, originaire d'Arménie, arriva en Italie, via l'Afrique. Cette variété est couramment dite melon de Cavaillon ou melon charentais. Mais, il existe aussi le « melon tranché de Cavaillon », le « melon allongé de Cavaillon » et le « melon d'hiver de Cavaillon »[réf. non conforme]. 
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cantaloup fut cultivé dans les jardins d'une propriété pontificale, dans le village de Cantalupo, près de Rome. Des graines arrivèrent dans le Comtat Venaissin, grâce aux papes d'Avignon sous le nom de pompon dans la seconde moitié du XIVe siècle[4].
-Apprécié à la Renaissance, il fut ensuite mis à l'écart des tables jusqu'à la fin du XVIIIe siècle. Catalogué comme un fruit rare, donc peu populaire, il reste cantonné dans le rôle de « joyau des potagers » et quasiment inconnu du grand public[4].
-La célébrité du melon de Cavaillon date du XIXe siècle et de la possibilité de le faire parvenir rapidement à Paris par chemin de fer. Alexandre Dumas les appréciait particulièrement. Il fit d'ailleurs don en 1864 à la bibliothèque de la ville de Cavaillon de la totalité de son œuvre publiée, en échange d'une rente viagère de douze melons par an. Le conseil municipal prit un arrêté en ce sens et la rente fut servie au romancier jusqu'à sa mort en 1870[4].
-Le Melon de Cavaillon est, depuis 1999, une marque, propriété du Marché d'Intérêt National de Cavaillon qui délègue au Syndicat des Maîtres Melonniers de Cavaillon la gestion de la production, la commercialisation et la valorisation professionnelle des melons produits dans les départements du Vaucluse, des Bouches-du-Rhône et des Alpes-de-Haute-Provence[5],[6].
-En 2019, des spécialistes craignent pour l'avenir du melon charentais menacé de disparition en raison du réchauffement climatique. En 2018, la production de melons a baissé de 11 % en France[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cantaloup fut cultivé dans les jardins d'une propriété pontificale, dans le village de Cantalupo, près de Rome. Des graines arrivèrent dans le Comtat Venaissin, grâce aux papes d'Avignon sous le nom de pompon dans la seconde moitié du XIVe siècle.
+Apprécié à la Renaissance, il fut ensuite mis à l'écart des tables jusqu'à la fin du XVIIIe siècle. Catalogué comme un fruit rare, donc peu populaire, il reste cantonné dans le rôle de « joyau des potagers » et quasiment inconnu du grand public.
+La célébrité du melon de Cavaillon date du XIXe siècle et de la possibilité de le faire parvenir rapidement à Paris par chemin de fer. Alexandre Dumas les appréciait particulièrement. Il fit d'ailleurs don en 1864 à la bibliothèque de la ville de Cavaillon de la totalité de son œuvre publiée, en échange d'une rente viagère de douze melons par an. Le conseil municipal prit un arrêté en ce sens et la rente fut servie au romancier jusqu'à sa mort en 1870.
+Le Melon de Cavaillon est, depuis 1999, une marque, propriété du Marché d'Intérêt National de Cavaillon qui délègue au Syndicat des Maîtres Melonniers de Cavaillon la gestion de la production, la commercialisation et la valorisation professionnelle des melons produits dans les départements du Vaucluse, des Bouches-du-Rhône et des Alpes-de-Haute-Provence,.
+En 2019, des spécialistes craignent pour l'avenir du melon charentais menacé de disparition en raison du réchauffement climatique. En 2018, la production de melons a baissé de 11 % en France.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Fête et Confrérie du melon</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une Confrérie des chevaliers de l'ordre du melon de Cavaillon a été fondée en 1988. Sa mission est de promouvoir le melon en France et à l'étranger[4]. Elle participe, entre autres, chaque année à la Fête du Melon qui a lieu au début du mois de juillet à Cavaillon[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une Confrérie des chevaliers de l'ordre du melon de Cavaillon a été fondée en 1988. Sa mission est de promouvoir le melon en France et à l'étranger. Elle participe, entre autres, chaque année à la Fête du Melon qui a lieu au début du mois de juillet à Cavaillon.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Boules de melon au muscat de Beaumes-de-Venise.
